--- a/report/客户拜访记录.xlsx
+++ b/report/客户拜访记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4BBB62-5022-4292-A059-A0A5416E6923}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68DA9B38-2D53-4B84-9D4B-E6E6B4DB52F5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="554" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
   <si>
     <t>国家/地区</t>
   </si>
@@ -130,6 +130,22 @@
   </si>
   <si>
     <t>1，文件服务器+备份                           2，VM正式环境升级内存             3，测试环境VM软件升级        4，Netapp备份软件+硬件       5，Nas for PD                      6，发现一台服务器警示黄灯亮，电池容量只有30%</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>斯凯奇</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海长宁区江苏北路69号3楼</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈斌</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ben_chen@skechers.cn</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1097,6 +1113,8 @@
       <c r="E3" s="6" t="s">
         <v>21</v>
       </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
       <c r="I3" s="4" t="s">
         <v>19</v>
       </c>
@@ -1112,10 +1130,24 @@
       <c r="C4" s="7" t="s">
         <v>25</v>
       </c>
+      <c r="D4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="4">
+        <v>13818214652</v>
+      </c>
       <c r="I4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="9"/>
+      <c r="J4" s="8" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="5" spans="1:11" s="6" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="7"/>
@@ -1148,14 +1180,17 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="在此标题下的此列中输入联系人姓名" sqref="F2" xr:uid="{76715853-EB95-4C76-8B24-C93943034055}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="在此标题下的此列中输入客户 ID。使用标题筛选器查找特定项" sqref="A2:D2" xr:uid="{01099767-492D-462B-BEDF-71BE57732FAD}"/>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="J4" r:id="rId1" xr:uid="{8B9482D3-7479-4D2E-AB9B-EE16C3D8B52A}"/>
+  </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="46" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="46" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <headerFooter differentFirst="1">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/report/客户拜访记录.xlsx
+++ b/report/客户拜访记录.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68DA9B38-2D53-4B84-9D4B-E6E6B4DB52F5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E690FB4-BB2B-46E7-9EC8-68077D9043E7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="554" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
   <si>
     <t>国家/地区</t>
   </si>
@@ -146,6 +146,50 @@
   </si>
   <si>
     <t>Ben_chen@skechers.cn</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>参观访问</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海马小修智能科技有限公司</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海松江中辰路299号新茸园区4号楼</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>金荣昌</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>副总经理</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT副总监</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，公司去年7月份刚搬进来，配件陆续从浦东送过了           2，1楼清洗，2楼测试，3楼库房</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>巡防客户机房</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海浦东新区瑞昌路385号</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海招商银行数据中心</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -859,7 +903,7 @@
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -955,6 +999,9 @@
     <row r="4" spans="1:11" s="6" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>43544</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>20</v>
@@ -1022,10 +1069,10 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1142,6 +1189,9 @@
       <c r="G4" s="4">
         <v>13818214652</v>
       </c>
+      <c r="H4" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="I4" s="4" t="s">
         <v>19</v>
       </c>
@@ -1149,17 +1199,52 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="6" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="7"/>
-      <c r="I5" s="4"/>
+    <row r="5" spans="1:11" s="6" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
+        <v>43558</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="4">
+        <v>18610286261</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:11" s="6" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10">
+        <v>43558</v>
+      </c>
       <c r="C6" s="7"/>
+      <c r="D6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="I6" s="4"/>
       <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:11" s="6" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10"/>
       <c r="C7" s="7"/>
       <c r="I7" s="4"/>
       <c r="J7" s="9"/>
